--- a/report/603826坤彩科技/603826.xlsx
+++ b/report/603826坤彩科技/603826.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/603826坤彩科技/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/603826坤彩科技/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD200E3-384C-8644-B817-59015E79E9FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC89F194-5122-614A-8309-5DF50AF27504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-12520" windowWidth="51200" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="-38400" yWindow="-5840" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
     <sheet name="比率 记录" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>年度财务</t>
   </si>
@@ -130,6 +131,18 @@
   </si>
   <si>
     <t>收入增长较净利润增长低。</t>
+  </si>
+  <si>
+    <t>报告期</t>
+  </si>
+  <si>
+    <t>机构数</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>市值</t>
   </si>
 </sst>
 </file>
@@ -3673,7 +3686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -4352,4 +4365,232 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C487489-F9E8-5341-BCC6-4281F8F2CF5F}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B2">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3">
+        <v>161948</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2924781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3496690</v>
+      </c>
+      <c r="D3" s="3">
+        <v>53814060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8687481</v>
+      </c>
+      <c r="D4" s="3">
+        <v>94780420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5490559</v>
+      </c>
+      <c r="D5" s="3">
+        <v>72804810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8258388</v>
+      </c>
+      <c r="D6" s="3">
+        <v>115204500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/report/603826坤彩科技/603826.xlsx
+++ b/report/603826坤彩科技/603826.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/603826坤彩科技/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC89F194-5122-614A-8309-5DF50AF27504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6DCC4-7B4F-EE4D-AA74-53C2C36904DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5840" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="37280" windowHeight="21140" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>年度财务</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t>市值</t>
+  </si>
+  <si>
+    <t>2018Q3/Q4 收入下降</t>
+  </si>
+  <si>
+    <t>2018库存商品增加45%，自制半成品增加60%</t>
   </si>
 </sst>
 </file>
@@ -3686,8 +3693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3916,12 +3923,12 @@
     <row r="16" spans="1:9">
       <c r="F16" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="19">
+    <row r="21" spans="1:4" ht="19">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -3932,7 +3939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
@@ -3941,7 +3948,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -3950,7 +3957,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -3959,7 +3966,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
@@ -3968,7 +3975,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
@@ -3976,8 +3983,12 @@
         <v>1.0409999999999999</v>
       </c>
       <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="2">
+        <f>B27/B23-1</f>
+        <v>0.27261613691931541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
@@ -3987,8 +3998,12 @@
       <c r="C28" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:D34" si="0">B28/B24-1</f>
+        <v>0.11996251171508909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -3998,8 +4013,12 @@
       <c r="C29" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1668311944718659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
@@ -4009,8 +4028,12 @@
       <c r="C30" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7768385460692979E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
@@ -4020,8 +4043,12 @@
       <c r="C31" s="5">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13448607108549493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -4031,8 +4058,12 @@
       <c r="C32" s="5">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41757322175732203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="11" t="s">
         <v>29</v>
       </c>
@@ -4042,8 +4073,12 @@
       <c r="C33" s="5">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.29018612521150589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
@@ -4053,60 +4088,64 @@
       <c r="C34" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15137254901960784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
@@ -4128,8 +4167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802DA02-89C9-6543-A9F0-11329708A39B}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4279,21 +4318,29 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="19">
       <c r="A8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
+      <c r="K8" s="13">
+        <v>43560</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="F11" s="6"/>
@@ -4371,7 +4418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C487489-F9E8-5341-BCC6-4281F8F2CF5F}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
